--- a/System development files/Prioritization.xlsx
+++ b/System development files/Prioritization.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Action</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Create reservation</t>
-  </si>
-  <si>
     <t>Find reservation</t>
   </si>
   <si>
@@ -53,6 +50,117 @@
   </si>
   <si>
     <t>Delete merchandise</t>
+  </si>
+  <si>
+    <t>Make reservation</t>
+  </si>
+  <si>
+    <t>Create table</t>
+  </si>
+  <si>
+    <t>Find table</t>
+  </si>
+  <si>
+    <t>Update table</t>
+  </si>
+  <si>
+    <t>delete table</t>
+  </si>
+  <si>
+    <t>Create preorder</t>
+  </si>
+  <si>
+    <t>Update preorder</t>
+  </si>
+  <si>
+    <t>Find preorder</t>
+  </si>
+  <si>
+    <t>Delete preorder</t>
+  </si>
+  <si>
+    <t>Make order</t>
+  </si>
+  <si>
+    <t>Update order</t>
+  </si>
+  <si>
+    <t>Find order</t>
+  </si>
+  <si>
+    <t>Cancel order</t>
+  </si>
+  <si>
+    <t>Make payment</t>
+  </si>
+  <si>
+    <t>Add discount</t>
+  </si>
+  <si>
+    <t>Send notification to waiters</t>
+  </si>
+  <si>
+    <t>Send notification to chef</t>
+  </si>
+  <si>
+    <t>Process notification</t>
+  </si>
+  <si>
+    <t>Create event</t>
+  </si>
+  <si>
+    <t>Customer check-in</t>
+  </si>
+  <si>
+    <t>Update event</t>
+  </si>
+  <si>
+    <t>Find event</t>
+  </si>
+  <si>
+    <t>Delete event</t>
+  </si>
+  <si>
+    <t>Create supplier</t>
+  </si>
+  <si>
+    <t>Update supplier</t>
+  </si>
+  <si>
+    <t>Find supplier</t>
+  </si>
+  <si>
+    <t>Delete supplier</t>
+  </si>
+  <si>
+    <t>Create course</t>
+  </si>
+  <si>
+    <t>Update course</t>
+  </si>
+  <si>
+    <t>Find course</t>
+  </si>
+  <si>
+    <t>Delete course</t>
+  </si>
+  <si>
+    <t>Create staff</t>
+  </si>
+  <si>
+    <t>Update staff</t>
+  </si>
+  <si>
+    <t>Find staff</t>
+  </si>
+  <si>
+    <t>Delete staff</t>
+  </si>
+  <si>
+    <t>Get statistics</t>
+  </si>
+  <si>
+    <t>Get supply statistics</t>
   </si>
 </sst>
 </file>
@@ -68,12 +176,72 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,8 +256,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -394,15 +572,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F9"/>
+  <dimension ref="B1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -426,8 +604,8 @@
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>9</v>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -439,10 +617,13 @@
         <f>C2*D2</f>
         <v>20</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -451,98 +632,767 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E45" si="0">C3*D3</f>
         <v>25</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="F19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F26">
         <v>10</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F27">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F28">
         <v>12</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F36">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F40">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/System development files/Prioritization.xlsx
+++ b/System development files/Prioritization.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -270,7 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -286,9 +286,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -326,9 +326,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +398,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -575,7 +575,7 @@
   <dimension ref="B1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B1" sqref="B1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,7 +605,7 @@
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E45" si="0">C3*D3</f>
+        <f t="shared" ref="E3:E44" si="0">C3*D3</f>
         <v>25</v>
       </c>
       <c r="F3">
@@ -694,8 +694,8 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>9</v>
+      <c r="B7" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -713,7 +713,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -748,8 +748,8 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>13</v>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -820,8 +820,8 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>17</v>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -875,7 +875,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -892,8 +892,8 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>21</v>
+      <c r="B18" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -914,17 +914,17 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -942,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -950,17 +950,17 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F21">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -968,17 +968,17 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -989,14 +989,14 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1004,17 +1004,17 @@
         <v>26</v>
       </c>
       <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>15</v>
       </c>
       <c r="F25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,7 @@
         <v>15</v>
       </c>
       <c r="F26">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="F27">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1076,17 +1076,17 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1094,17 +1094,17 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1122,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1130,17 +1130,17 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="F31">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1148,17 +1148,17 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
@@ -1166,17 +1166,17 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="F34">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
@@ -1202,17 +1202,17 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F35">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
@@ -1220,17 +1220,17 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -1238,17 +1238,17 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
@@ -1274,17 +1274,17 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>42</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
@@ -1292,17 +1292,17 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
@@ -1310,17 +1310,17 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="F42">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
@@ -1346,17 +1346,17 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -1367,32 +1367,19 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>4</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F45">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
